--- a/key.xlsx
+++ b/key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS10\Documents\GitHub\Plato-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Plato-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BAB7A6A-D668-4B3D-B738-7A3BFB107F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142CABD9-D513-4333-9E79-37FD8312434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C1DC38B-484B-4C6E-8865-E39D2A583C10}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{7C1DC38B-484B-4C6E-8865-E39D2A583C10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">6월 6일  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C5k4GIlUFG6m0gilV4HRHw%3D%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">6월 8일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TiIUuwP9Xf86a%2BmLewyGwg%3D%3D</t>
+  </si>
+  <si>
+    <t>x7hvyRxVJL3I8IMuW8voTQ%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5k4GIlUFG6m0gilV4HRHw%3D%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,24 +423,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA77D89-C527-4E05-B296-21768D12B42B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(B1,"%3D","="),"%2B","+")</f>
@@ -442,12 +451,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(B2,"%3D","="),"%2B","+")</f>
@@ -455,6 +464,22 @@
       </c>
       <c r="D2">
         <f>LEN(C2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(B3,"%3D","="),"%2B","+")</f>
+        <v>x7hvyRxVJL3I8IMuW8voTQ==</v>
+      </c>
+      <c r="D3">
+        <f>LEN(C3)</f>
         <v>24</v>
       </c>
     </row>
